--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H2">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N2">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O2">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P2">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q2">
-        <v>2.555386904192743</v>
+        <v>26.09076740469167</v>
       </c>
       <c r="R2">
-        <v>2.555386904192743</v>
+        <v>234.816906642225</v>
       </c>
       <c r="S2">
-        <v>0.0004982916468139938</v>
+        <v>0.003899326144729956</v>
       </c>
       <c r="T2">
-        <v>0.0004982916468139938</v>
+        <v>0.003899326144729955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H3">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N3">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q3">
-        <v>48.1085414875496</v>
+        <v>73.02718153828646</v>
       </c>
       <c r="R3">
-        <v>48.1085414875496</v>
+        <v>657.2446338445781</v>
       </c>
       <c r="S3">
-        <v>0.009380999927767615</v>
+        <v>0.01091408289496981</v>
       </c>
       <c r="T3">
-        <v>0.009380999927767615</v>
+        <v>0.01091408289496981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H4">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N4">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q4">
-        <v>0.09670656743816264</v>
+        <v>0.1509970446948889</v>
       </c>
       <c r="R4">
-        <v>0.09670656743816264</v>
+        <v>1.358973402254</v>
       </c>
       <c r="S4">
-        <v>1.885744764028734E-05</v>
+        <v>2.256686110542926E-05</v>
       </c>
       <c r="T4">
-        <v>1.885744764028734E-05</v>
+        <v>2.256686110542926E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H5">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N5">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q5">
-        <v>17.40273876890364</v>
+        <v>28.79480139854256</v>
       </c>
       <c r="R5">
-        <v>17.40273876890364</v>
+        <v>259.153212586883</v>
       </c>
       <c r="S5">
-        <v>0.003393474133409218</v>
+        <v>0.004303450342570351</v>
       </c>
       <c r="T5">
-        <v>0.003393474133409218</v>
+        <v>0.00430345034257035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N6">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O6">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P6">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q6">
-        <v>135.964518575278</v>
+        <v>928.2408002097084</v>
       </c>
       <c r="R6">
-        <v>135.964518575278</v>
+        <v>8354.167201887376</v>
       </c>
       <c r="S6">
-        <v>0.02651261292682787</v>
+        <v>0.1387277562488218</v>
       </c>
       <c r="T6">
-        <v>0.02651261292682787</v>
+        <v>0.1387277562488218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N7">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q7">
-        <v>2559.71206238134</v>
+        <v>2598.114818806333</v>
       </c>
       <c r="R7">
-        <v>2559.71206238134</v>
+        <v>23383.03336925699</v>
       </c>
       <c r="S7">
-        <v>0.4991350377670393</v>
+        <v>0.3882943296700471</v>
       </c>
       <c r="T7">
-        <v>0.4991350377670393</v>
+        <v>0.3882943296700471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N8">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q8">
-        <v>5.145468133699762</v>
+        <v>5.372077234174444</v>
       </c>
       <c r="R8">
-        <v>5.145468133699762</v>
+        <v>48.34869510757</v>
       </c>
       <c r="S8">
-        <v>0.001003348567593971</v>
+        <v>0.0008028694934806019</v>
       </c>
       <c r="T8">
-        <v>0.001003348567593971</v>
+        <v>0.0008028694934806021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N9">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q9">
-        <v>925.9478455974905</v>
+        <v>1024.443209257863</v>
       </c>
       <c r="R9">
-        <v>925.9478455974905</v>
+        <v>9219.988883320766</v>
       </c>
       <c r="S9">
-        <v>0.1805566413796735</v>
+        <v>0.1531054310396376</v>
       </c>
       <c r="T9">
-        <v>0.1805566413796735</v>
+        <v>0.1531054310396376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H10">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N10">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O10">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P10">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q10">
-        <v>1.279553122215618</v>
+        <v>10.14365411980833</v>
       </c>
       <c r="R10">
-        <v>1.279553122215618</v>
+        <v>91.292887078275</v>
       </c>
       <c r="S10">
-        <v>0.000249508452676455</v>
+        <v>0.001515992806917355</v>
       </c>
       <c r="T10">
-        <v>0.000249508452676455</v>
+        <v>0.001515992806917355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H11">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N11">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q11">
-        <v>24.08928149574279</v>
+        <v>28.39174714100689</v>
       </c>
       <c r="R11">
-        <v>24.08928149574279</v>
+        <v>255.525724269062</v>
       </c>
       <c r="S11">
-        <v>0.004697326939957647</v>
+        <v>0.004243212942122292</v>
       </c>
       <c r="T11">
-        <v>0.004697326939957647</v>
+        <v>0.004243212942122294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H12">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N12">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q12">
-        <v>0.04842366144290255</v>
+        <v>0.05870512625177778</v>
       </c>
       <c r="R12">
-        <v>0.04842366144290255</v>
+        <v>0.528346136266</v>
       </c>
       <c r="S12">
-        <v>9.442447233942324E-06</v>
+        <v>8.77361827165218E-06</v>
       </c>
       <c r="T12">
-        <v>9.442447233942324E-06</v>
+        <v>8.773618271652182E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H13">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N13">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q13">
-        <v>8.714034141099233</v>
+        <v>11.19493732418411</v>
       </c>
       <c r="R13">
-        <v>8.714034141099233</v>
+        <v>100.754435917657</v>
       </c>
       <c r="S13">
-        <v>0.001699206650639622</v>
+        <v>0.001673109537933892</v>
       </c>
       <c r="T13">
-        <v>0.001699206650639622</v>
+        <v>0.001673109537933892</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H14">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N14">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O14">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P14">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q14">
-        <v>52.45598486611386</v>
+        <v>398.7196344189167</v>
       </c>
       <c r="R14">
-        <v>52.45598486611386</v>
+        <v>3588.47670977025</v>
       </c>
       <c r="S14">
-        <v>0.0102287364161174</v>
+        <v>0.05958958089623984</v>
       </c>
       <c r="T14">
-        <v>0.0102287364161174</v>
+        <v>0.05958958089623984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H15">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N15">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q15">
-        <v>987.553360338959</v>
+        <v>1116.002863156624</v>
       </c>
       <c r="R15">
-        <v>987.553360338959</v>
+        <v>10044.02576840962</v>
       </c>
       <c r="S15">
-        <v>0.1925695046149759</v>
+        <v>0.1667892352264653</v>
       </c>
       <c r="T15">
-        <v>0.1925695046149759</v>
+        <v>0.1667892352264654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H16">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N16">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q16">
-        <v>1.985154666663915</v>
+        <v>2.307539886628889</v>
       </c>
       <c r="R16">
-        <v>1.985154666663915</v>
+        <v>20.76785897966</v>
       </c>
       <c r="S16">
-        <v>0.000387098324097006</v>
+        <v>0.0003448672271832533</v>
       </c>
       <c r="T16">
-        <v>0.000387098324097006</v>
+        <v>0.0003448672271832534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H17">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N17">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q17">
-        <v>357.2366282353335</v>
+        <v>440.0427365247856</v>
       </c>
       <c r="R17">
-        <v>357.2366282353335</v>
+        <v>3960.38462872307</v>
       </c>
       <c r="S17">
-        <v>0.06965991235753641</v>
+        <v>0.06576541504950377</v>
       </c>
       <c r="T17">
-        <v>0.06965991235753641</v>
+        <v>0.06576541504950377</v>
       </c>
     </row>
   </sheetData>
